--- a/storage/app/import/master-materials-tools-cn.xlsx
+++ b/storage/app/import/master-materials-tools-cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\MeMFIS\storage\app\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4875C06D-ACCF-4777-9544-D1DF70AB85AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0E6500-C390-4E49-96F5-A5B8E1EBF21C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="1665" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
   <si>
     <t>Material</t>
   </si>
@@ -135,9 +135,6 @@
     <t>35-13328-0801</t>
   </si>
   <si>
-    <t>Solvent Z-23.138</t>
-  </si>
-  <si>
     <t>Emulsion Cleaner  Z-23.212</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Grease</t>
   </si>
   <si>
-    <t>Cleaning Solvent</t>
-  </si>
-  <si>
     <t>Scotch Brite</t>
   </si>
   <si>
@@ -232,6 +226,33 @@
   </si>
   <si>
     <t>Access Platform 2.5 M High</t>
+  </si>
+  <si>
+    <t>RAW-PL-PUTIH</t>
+  </si>
+  <si>
+    <t>RAW-NR094-A</t>
+  </si>
+  <si>
+    <t>Lint Free Cloth</t>
+  </si>
+  <si>
+    <t>Cleaning Solvent Z-23.138</t>
+  </si>
+  <si>
+    <t>35-11392-0403-A</t>
+  </si>
+  <si>
+    <t>35-13328-0401-A</t>
+  </si>
+  <si>
+    <t>28-0-2243-MZ-A</t>
+  </si>
+  <si>
+    <t>28-0-2243-MZ-B</t>
+  </si>
+  <si>
+    <t>28-0-2243-MZ-C</t>
   </si>
 </sst>
 </file>
@@ -805,18 +826,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="256" max="256" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -1036,40 +1060,44 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
@@ -1087,39 +1115,43 @@
       <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -1127,9 +1159,11 @@
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
@@ -1147,9 +1181,11 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>20</v>
@@ -1167,9 +1203,11 @@
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>20</v>
@@ -1187,9 +1225,11 @@
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>20</v>
@@ -1207,9 +1247,11 @@
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>20</v>
@@ -1227,9 +1269,11 @@
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1283,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>20</v>
@@ -1247,9 +1291,11 @@
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1305,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>20</v>
@@ -1267,9 +1313,11 @@
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1327,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>20</v>
@@ -1287,9 +1335,11 @@
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>20</v>
@@ -1307,19 +1357,21 @@
       <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>20</v>
@@ -1327,9 +1379,11 @@
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>20</v>
@@ -1347,19 +1401,21 @@
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
@@ -1367,9 +1423,11 @@
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1437,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>20</v>
@@ -1387,9 +1445,11 @@
       <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1459,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>20</v>
@@ -1407,9 +1467,11 @@
       <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1419,7 +1481,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>20</v>
@@ -1427,9 +1489,11 @@
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1503,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>20</v>
@@ -1447,9 +1511,11 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1525,7 @@
         <v>42019691</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
@@ -1467,29 +1533,33 @@
       <c r="D23" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="47.25">
+    <row r="24" spans="1:8" ht="31.5">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
@@ -1507,19 +1577,21 @@
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.5">
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>8</v>
@@ -1527,9 +1599,11 @@
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>8</v>
@@ -1547,69 +1621,77 @@
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="31.5">
-      <c r="A29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="47.25">
-      <c r="A30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C30" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>8</v>
@@ -1627,19 +1709,21 @@
       <c r="D31" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>8</v>
@@ -1647,19 +1731,21 @@
       <c r="D32" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="25.5">
       <c r="A33" s="7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>8</v>
@@ -1667,19 +1753,21 @@
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>8</v>
@@ -1687,19 +1775,21 @@
       <c r="D34" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>8</v>
@@ -1707,15 +1797,14 @@
       <c r="D35" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/import/master-materials-tools-cn.xlsx
+++ b/storage/app/import/master-materials-tools-cn.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\MeMFIS\storage\app\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0E6500-C390-4E49-96F5-A5B8E1EBF21C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCADEDD-B85E-441F-B72E-D615C9540096}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="1665" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="4425" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
   <si>
     <t>Material</t>
   </si>
@@ -51,9 +51,6 @@
     <t>EA</t>
   </si>
   <si>
-    <t>TOOL</t>
-  </si>
-  <si>
     <t>28-0-2771H</t>
   </si>
   <si>
@@ -72,18 +69,6 @@
     <t>SHT</t>
   </si>
   <si>
-    <t>RAW-7447</t>
-  </si>
-  <si>
-    <t>RAW-CC180CW</t>
-  </si>
-  <si>
-    <t>RAW-CC400CW</t>
-  </si>
-  <si>
-    <t>RAW-TTM-261</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
@@ -99,27 +84,12 @@
     <t>MODELNO-120CU24P</t>
   </si>
   <si>
-    <t>RAW-LPS-04205</t>
-  </si>
-  <si>
-    <t>RAW-NR094</t>
-  </si>
-  <si>
-    <t>RAW-PR1422A2</t>
-  </si>
-  <si>
-    <t>RAW-PR1422B2</t>
-  </si>
-  <si>
     <t>RAW-SENTER-LED</t>
   </si>
   <si>
     <t>P-D-680-TYPE II</t>
   </si>
   <si>
-    <t>RAW-MIL-G-81322D</t>
-  </si>
-  <si>
     <t>35-11390-0403</t>
   </si>
   <si>
@@ -168,9 +138,6 @@
     <t>Masking Tape</t>
   </si>
   <si>
-    <t>ROLL</t>
-  </si>
-  <si>
     <t>TOOL-MIRROR-DENTIST;TOOL-MIRROR-PERSEGI</t>
   </si>
   <si>
@@ -228,24 +195,12 @@
     <t>Access Platform 2.5 M High</t>
   </si>
   <si>
-    <t>RAW-PL-PUTIH</t>
-  </si>
-  <si>
-    <t>RAW-NR094-A</t>
-  </si>
-  <si>
     <t>Lint Free Cloth</t>
   </si>
   <si>
     <t>Cleaning Solvent Z-23.138</t>
   </si>
   <si>
-    <t>35-11392-0403-A</t>
-  </si>
-  <si>
-    <t>35-13328-0401-A</t>
-  </si>
-  <si>
     <t>28-0-2243-MZ-A</t>
   </si>
   <si>
@@ -253,13 +208,199 @@
   </si>
   <si>
     <t>28-0-2243-MZ-C</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-PL-PUTIH</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-NR094</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-NR094-Z23204</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-MIL-G-81322D</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-7447</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-PR1422B2</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-TTM-261</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-LPS-04205</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-CC180CW</t>
+  </si>
+  <si>
+    <t>RAW MATERIAL-CC400CW</t>
+  </si>
+  <si>
+    <t>35-11392-0403-MASK</t>
+  </si>
+  <si>
+    <t>35-13328-0401-JOINT</t>
+  </si>
+  <si>
+    <t>782630-4</t>
+  </si>
+  <si>
+    <t>103696-1</t>
+  </si>
+  <si>
+    <t>147527-1</t>
+  </si>
+  <si>
+    <t>8160-530</t>
+  </si>
+  <si>
+    <t>CA78200-0001</t>
+  </si>
+  <si>
+    <t>781102-1</t>
+  </si>
+  <si>
+    <t>781101-1</t>
+  </si>
+  <si>
+    <t>754691-2</t>
+  </si>
+  <si>
+    <t>MPEV3-011-8UK2B</t>
+  </si>
+  <si>
+    <t>6942Q010</t>
+  </si>
+  <si>
+    <t>6943Q010</t>
+  </si>
+  <si>
+    <t>60-3895-1</t>
+  </si>
+  <si>
+    <t>RR54630B</t>
+  </si>
+  <si>
+    <t>778686-2</t>
+  </si>
+  <si>
+    <t>778695-2</t>
+  </si>
+  <si>
+    <t>31342-001</t>
+  </si>
+  <si>
+    <t>1965H000</t>
+  </si>
+  <si>
+    <t>764821-3</t>
+  </si>
+  <si>
+    <t>782640-2</t>
+  </si>
+  <si>
+    <t>783670-1</t>
+  </si>
+  <si>
+    <t>93-A100-80</t>
+  </si>
+  <si>
+    <t>17-M800-251</t>
+  </si>
+  <si>
+    <t>AC9985F30</t>
+  </si>
+  <si>
+    <t>5044T15P01</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>Primary Outflow Valve</t>
+  </si>
+  <si>
+    <t>Secondary Outflow Valve</t>
+  </si>
+  <si>
+    <t>Starter Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spray Nozzle </t>
+  </si>
+  <si>
+    <t>Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Electrical Motor Driven Pumps</t>
+  </si>
+  <si>
+    <t>Emergency Light Power Supply Units</t>
+  </si>
+  <si>
+    <t>Submergered fuel pump</t>
+  </si>
+  <si>
+    <t>AC generator</t>
+  </si>
+  <si>
+    <t>Precooler</t>
+  </si>
+  <si>
+    <t>Dual Heat Exchanger</t>
+  </si>
+  <si>
+    <t>Condensor and Mixer</t>
+  </si>
+  <si>
+    <t>Cockpit voice recorder</t>
+  </si>
+  <si>
+    <t>DFDR</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>Fuel Ejector FiLer</t>
+  </si>
+  <si>
+    <t>Water FiLer</t>
+  </si>
+  <si>
+    <t>Hydraulic FiLers of Module Unit</t>
+  </si>
+  <si>
+    <t>FiLer of High Pressure  Shut-off Valve</t>
+  </si>
+  <si>
+    <t>FiLer of Pressure Regulator and shut-off valve</t>
+  </si>
+  <si>
+    <t>Hydraulic fiLer generator manifold</t>
+  </si>
+  <si>
+    <t>Power Unit Fuel FiLer Element</t>
+  </si>
+  <si>
+    <t>Power Unit Oil FiLer Element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="5" formatCode="&quot;Rp&quot;#,##0;\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -271,8 +412,9 @@
     <numFmt numFmtId="169" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="171" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="0_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +499,12 @@
       <name val="굴림체"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -378,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -401,8 +549,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -458,8 +652,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,30 +705,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="96">
     <cellStyle name="AeE­ [0]_INQUIRY ¿?¾÷AßAø " xfId="14" xr:uid="{F766220A-1061-4B3B-AA30-F45DCDC31815}"/>
     <cellStyle name="AeE­_INQUIRY ¿?¾÷AßAø " xfId="15" xr:uid="{D59FBDE6-15D8-4CA9-8D49-FE3C349C577A}"/>
     <cellStyle name="AÞ¸¶ [0]_INQUIRY ¿?¾÷AßAø " xfId="16" xr:uid="{3A7E8A5E-275D-44BE-8C25-1E07FE628205}"/>
@@ -510,7 +803,27 @@
     <cellStyle name="no dec" xfId="24" xr:uid="{0F274DD4-85F5-48F1-BB8E-3250F4E2646D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="25" xr:uid="{C8ABAE9B-7D5B-4B59-878F-6A10E8930F98}"/>
+    <cellStyle name="Normal 10" xfId="68" xr:uid="{815E9735-B055-42BC-B5C7-4583F9F3D1E6}"/>
+    <cellStyle name="Normal 10 2" xfId="89" xr:uid="{04575E70-691F-4898-9E67-02627BFB3A6B}"/>
+    <cellStyle name="Normal 11" xfId="76" xr:uid="{7EF3C9EE-5A3B-44F5-A95B-BD72FC60AA70}"/>
+    <cellStyle name="Normal 11 2" xfId="58" xr:uid="{4DD7D148-D175-4B08-8CE5-8ED9DC863E2C}"/>
     <cellStyle name="Normal 11 2 2" xfId="1" xr:uid="{22C8E471-B931-411B-AB5B-A569578D5295}"/>
+    <cellStyle name="Normal 12" xfId="61" xr:uid="{20BCD7F2-7FFF-406B-BA62-2140AD5CC6CC}"/>
+    <cellStyle name="Normal 12 2" xfId="82" xr:uid="{5AC13965-66E7-48C4-B84B-70B5D3EDA6FD}"/>
+    <cellStyle name="Normal 13" xfId="62" xr:uid="{29D4C38F-1C36-4F70-B235-C37BE23F97CE}"/>
+    <cellStyle name="Normal 13 2" xfId="83" xr:uid="{853CFCF8-18AE-47A6-9455-5F117A4AD295}"/>
+    <cellStyle name="Normal 14" xfId="63" xr:uid="{72F7A1F4-466E-472A-90DB-98347E726FA0}"/>
+    <cellStyle name="Normal 14 2" xfId="84" xr:uid="{7E4D0CCE-5D92-4243-A9BF-EF90DFF53AD4}"/>
+    <cellStyle name="Normal 15" xfId="65" xr:uid="{1F9FC0F2-5B64-49CE-82C1-80187F8640D6}"/>
+    <cellStyle name="Normal 15 2" xfId="86" xr:uid="{A2573261-B30D-4F2F-B553-1B0899BDDBB6}"/>
+    <cellStyle name="Normal 16" xfId="77" xr:uid="{D7DFE152-910A-457E-B281-A963B50D7BFC}"/>
+    <cellStyle name="Normal 16 2" xfId="56" xr:uid="{4731BADF-EA58-4D28-8F92-BA50C89CA2E1}"/>
+    <cellStyle name="Normal 17" xfId="66" xr:uid="{A17BEE8F-5D4D-4397-90F6-ACEC7494B2EF}"/>
+    <cellStyle name="Normal 17 2" xfId="87" xr:uid="{88D2440E-A577-41DA-9491-D34DE26581BA}"/>
+    <cellStyle name="Normal 18" xfId="78" xr:uid="{DB30D998-1F56-4B15-9B10-38E16FC17ED8}"/>
+    <cellStyle name="Normal 18 2" xfId="55" xr:uid="{275D8905-7F8B-4556-BDC8-26FDCF94A4FE}"/>
+    <cellStyle name="Normal 19" xfId="67" xr:uid="{BC6B1D54-6C18-49E0-8554-0BE1111E9B6A}"/>
+    <cellStyle name="Normal 19 2" xfId="88" xr:uid="{C6D13CF6-1A79-45CC-902C-1CB417D556E9}"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{12505D5D-D3D4-4C46-A41B-2879DE018D59}"/>
     <cellStyle name="Normal 2 107 4" xfId="3" xr:uid="{4DB48825-D986-4656-9196-50A545CD4C44}"/>
     <cellStyle name="Normal 2 2" xfId="10" xr:uid="{80765B6C-46FA-4538-BC7D-B0245C0B07E8}"/>
@@ -520,14 +833,35 @@
     <cellStyle name="Normal 2 5" xfId="11" xr:uid="{8B4B6526-265F-4A0F-AF89-5BA298E486BC}"/>
     <cellStyle name="Normal 2 5 2" xfId="54" xr:uid="{24D3A148-5187-4065-9ADF-EDAEA20824B9}"/>
     <cellStyle name="Normal 2 5 3" xfId="53" xr:uid="{18C7F868-F030-4F83-B6E7-34275DE44062}"/>
+    <cellStyle name="Normal 2 5 3 2" xfId="71" xr:uid="{4EC7626B-9FC4-417F-856C-463E0CEF353B}"/>
     <cellStyle name="Normal 2 5 4" xfId="50" xr:uid="{69702D66-F11E-465C-94EA-6BC27B704393}"/>
     <cellStyle name="Normal 2 6" xfId="13" xr:uid="{4CE54168-4AAC-409D-9B5F-49AD43A39B85}"/>
+    <cellStyle name="Normal 2 6 2" xfId="70" xr:uid="{773B8485-D65E-4D3A-9BB8-44A7F4B78FF3}"/>
+    <cellStyle name="Normal 20" xfId="79" xr:uid="{51E59385-295D-4A60-BC07-BA82E3D45E94}"/>
+    <cellStyle name="Normal 20 2" xfId="57" xr:uid="{31F399F0-38AE-4779-A33A-93D4659506E7}"/>
+    <cellStyle name="Normal 21" xfId="60" xr:uid="{2B3BB985-58E7-4A36-A4EF-A517521433D8}"/>
+    <cellStyle name="Normal 21 2" xfId="81" xr:uid="{40378E6E-2752-485F-BDA3-283A1E318F53}"/>
+    <cellStyle name="Normal 22" xfId="80" xr:uid="{16C534A2-1F71-4EDF-8E23-85ADDFBA11F4}"/>
+    <cellStyle name="Normal 22 2" xfId="91" xr:uid="{DFCA7672-7A4D-4DE5-9DF2-AA2B5696CA89}"/>
+    <cellStyle name="Normal 23" xfId="69" xr:uid="{5CCB7F87-6C83-4DB6-BEEC-EEA08C9BFFC7}"/>
+    <cellStyle name="Normal 23 2" xfId="92" xr:uid="{3D71E038-F0B1-43E8-9585-9044946AD9D2}"/>
+    <cellStyle name="Normal 24" xfId="90" xr:uid="{00ACED9E-6816-42AF-9C17-F17D00B21AC1}"/>
+    <cellStyle name="Normal 24 2" xfId="95" xr:uid="{5D9EBC3B-44CA-4D13-9A1A-7CBF72FC39CA}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{4D5EE297-214B-4ADB-AF90-446F5F78174D}"/>
     <cellStyle name="Normal 3 2" xfId="49" xr:uid="{2AA93A48-BC1C-47B1-BA95-42560FB560EB}"/>
     <cellStyle name="Normal 4" xfId="12" xr:uid="{75CDEB6D-7B34-4324-B85A-0AA56E3D39D6}"/>
     <cellStyle name="Normal 4 2" xfId="52" xr:uid="{E43342DE-04DB-49E8-AB99-6C3500945EDD}"/>
     <cellStyle name="Normal 5" xfId="47" xr:uid="{F9CA46F4-4E1E-4B33-9016-7788ED011039}"/>
     <cellStyle name="Normal 6" xfId="48" xr:uid="{114322E9-6EFB-41CB-9F2C-40E01DE2F7E9}"/>
+    <cellStyle name="Normal 7" xfId="72" xr:uid="{D6B349A1-C07B-4E5D-A460-9BD670DC2AB5}"/>
+    <cellStyle name="Normal 7 2" xfId="94" xr:uid="{2B257068-1383-4E27-844D-DF1972AF52A4}"/>
+    <cellStyle name="Normal 8" xfId="75" xr:uid="{C48DBF7B-4486-44FC-A284-B3984E66E789}"/>
+    <cellStyle name="Normal 8 2" xfId="59" xr:uid="{9E2C2C5F-6D26-480C-8BE8-6BEB64FD2D2E}"/>
+    <cellStyle name="Normal 9" xfId="64" xr:uid="{96C7D070-DF5F-4D47-BFE4-B8BA23AD49E7}"/>
+    <cellStyle name="Normal 9 2" xfId="85" xr:uid="{3FBA9C75-FAD8-4F1B-AC33-4B6129A06ADF}"/>
+    <cellStyle name="Percent 2" xfId="73" xr:uid="{784E95C3-392B-4694-8A49-55CCC32360E1}"/>
+    <cellStyle name="Percent 2 2" xfId="93" xr:uid="{C63E35E9-680D-44A2-80BE-718C14FDD0BB}"/>
+    <cellStyle name="Total 2" xfId="74" xr:uid="{9D7ABE37-2FCC-4AD2-AE92-8FDA2C080874}"/>
     <cellStyle name="เครื่องหมายจุลภาค [0]_N1222H#" xfId="26" xr:uid="{F08AA30F-033B-4FEB-B4C3-88A2D76EC2C4}"/>
     <cellStyle name="เครื่องหมายจุลภาค_N1222H#" xfId="27" xr:uid="{D8B07D94-557F-40EB-9A7C-8F2F6D7FD9D3}"/>
     <cellStyle name="เครื่องหมายสกุลเงิน [0]_N1222H#" xfId="28" xr:uid="{1EDE6F6F-A492-456A-8AF6-1E99E2D5F29F}"/>
@@ -826,11 +1160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1043,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1059,751 +1393,1103 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30">
+      <c r="A33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="A35" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30">
+      <c r="A36" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
+      <c r="A46" s="15">
+        <v>42019691</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="31.5">
+      <c r="A47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B47" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75">
+      <c r="A48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75">
+      <c r="A49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75">
+      <c r="A50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75">
+      <c r="A51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B51" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75">
+      <c r="A52" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+      <c r="B52" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75">
+      <c r="A53" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75">
+      <c r="A54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75">
+      <c r="A55" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="7">
-        <v>42019691</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="B55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="25.5">
+      <c r="A56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75">
+      <c r="A57" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="31.5">
-      <c r="A24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="D57" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75">
+      <c r="A58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="25.5">
-      <c r="A33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
-        <v>10</v>
+      <c r="D58" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
